--- a/medicine/Enfance/Fabienne_Blanchut/Fabienne_Blanchut.xlsx
+++ b/medicine/Enfance/Fabienne_Blanchut/Fabienne_Blanchut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fabienne Blanchut (née le 22 février 1974 à Grenoble en France) est auteur de livres pour enfants, de romans pour la jeunesse et scénariste de télévision française.
 </t>
@@ -511,18 +523,20 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une maîtrise en Histoire sociale et culturelle à l'Université de Grenoble, elle entreprend un DEA de Sciences sociales à l'Université de Jussieu mais ne trouve finalement sa voie qu'après un DESS en Audiovisuel et édition à la Sorbonne.
 Lors de son stage de fin d'études à TF1, Janine Langlois-Glandier la fait venir auprès d'elle au CSA - Conseil Supérieur de l'Audiovisuel, en qualité d'assistante personnelle. Elle y restera un an avant d'être rappelée par TF1 qui lui propose le Poste d'Observatoire de la Concurrence au service de la Programmation.
 En parallèle, elle commence à proposer divers projets d'émissions. Certains sont retenus, dont le premier par Cuisine TV qui diffusera la série Vous prendrez bien du fromage pendant plusieurs années.
-En 2004, Fabienne commence à écrire des histoires pour les enfants. La même année, elle fait une rencontre déterminante : Camille Dubois, qui va devenir son illustratrice fétiche. La littérature Jeunesse lui tend alors les bras[1].
-Elle compte plus de 140 titres publiés dont ses trois collections phares : Zoé, Princesse parfaite[2] chez Fleurus Enfants, 42 titres et 23 langues de traduction, Les Coquinettes[3] chez Hachette - Les 2 Coqs d'or[4], 16 titres et Emma et Loustic chez Albin Michel Jeunesse, 23 titres depuis sa création en 2018.
-En décembre 2014, les Trophées Montaigne lui remettent un "Dargaa d'or" dans la catégorie culture[5], une récompense qui distingue un français vivant en Belgique et dont le travail rayonne à travers différents pays. 
+En 2004, Fabienne commence à écrire des histoires pour les enfants. La même année, elle fait une rencontre déterminante : Camille Dubois, qui va devenir son illustratrice fétiche. La littérature Jeunesse lui tend alors les bras.
+Elle compte plus de 140 titres publiés dont ses trois collections phares : Zoé, Princesse parfaite chez Fleurus Enfants, 42 titres et 23 langues de traduction, Les Coquinettes chez Hachette - Les 2 Coqs d'or, 16 titres et Emma et Loustic chez Albin Michel Jeunesse, 23 titres depuis sa création en 2018.
+En décembre 2014, les Trophées Montaigne lui remettent un "Dargaa d'or" dans la catégorie culture, une récompense qui distingue un français vivant en Belgique et dont le travail rayonne à travers différents pays. 
 En octobre 2016, elle devient directrice de collection pour les Editions Leducs avec la collection Destins Extraordinaires, parrainée par Gilbert Sinoué. 
-En plus de ses titres pour les enfants, elle se lance dans l'écriture de romans à destination d'un public jeunesse : 1749 miles[6], Carafouille, Gladiateur, un cheval de légende et Les Jumelles fantastiques sont déjà publiés. 
+En plus de ses titres pour les enfants, elle se lance dans l'écriture de romans à destination d'un public jeunesse : 1749 miles, Carafouille, Gladiateur, un cheval de légende et Les Jumelles fantastiques sont déjà publiés. 
 En 2017, elle travaille à l'adaptation en animation de deux de ses collections et signe un projet original.
-Son roman 1749 miles remporte en avril 2019 la première édition du "Prix Première Victor du livre"[7]. Lancé par le Fonds Victor[8] et la RTBF, ce prix est décerné par un panel de jeunes lecteurs belges entre 12 et 15 ans sélectionnés dans les écoles de la Fédération Wallonie-Bruxelles.  
+Son roman 1749 miles remporte en avril 2019 la première édition du "Prix Première Victor du livre". Lancé par le Fonds Victor et la RTBF, ce prix est décerné par un panel de jeunes lecteurs belges entre 12 et 15 ans sélectionnés dans les écoles de la Fédération Wallonie-Bruxelles.  
 En 2021 sort chez Marabout - Collection La Belle Etoile son premier roman en littérature général, Maman ne répond plus !
 En parallèle de son activité d'auteur, elle effectue des missions de consultance pour des chaînes de télévision ou dans des sociétés de production de cinéma et devient Cheffe éditoriale sur le Magazine Culturel "ESOPA" sur TéléMB en 2023.
 </t>
@@ -555,7 +569,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans jeunesse
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Fleurus Jeunesse
 2018 : Gladiateur, un cheval de légende
 2021 : Portraits de chiens
@@ -587,7 +607,43 @@
 2022 : Flop Marmite
 2022 : Un bébé chez les sorciers
 2022 : L’inconnue de la lune Rose
-Albums illustrés
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fabienne_Blanchut</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabienne_Blanchut</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Albums illustrés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Albin Michel Jeunesse
 Collection Emma et Loustic. Collection premières lectures, illustrations Caroline Hesnard
 2018 : La rencontre
@@ -609,7 +665,7 @@
 2020 : Les mariés de Montmartre
 2020 : Enquête à Versailles
 Hachette
-Collection Coquinettes, illustrations Camille Dubois[9], albums 5 ans et plus, Hachette
+Collection Coquinettes, illustrations Camille Dubois, albums 5 ans et plus, Hachette
 2012 : Nova, la star des Coquinettes
 2012 : Lou, la sportive des Coquinettes
 2012 : La soirée pyjama des Coquinettes
@@ -733,25 +789,162 @@
 Collection Nina et Grodounours, illustrations Camille Dubois, albums 3 ans et plus.
 2007 : Nina et Gros nounours
 2007 : Gros nounours sent mauvais
-Littérature générale
-Editions Marabout - Collection La belle étoile
-2021 : Maman ne répond plus !
-Directrice de collection éditions Leducs
-Collection Destins Extraordinaires, illustrée par David Pillet
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fabienne_Blanchut</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabienne_Blanchut</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature générale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Editions Marabout - Collection La belle étoile
+2021 : Maman ne répond plus !</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fabienne_Blanchut</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabienne_Blanchut</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Directrice de collection éditions Leducs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Collection Destins Extraordinaires, illustrée par David Pillet
 Les sortilèges de Cléopâtre, Jessica Nelson
 Je m'appelle Jeanne D'arc, Gilbert Sinoue (parrain)
 Voltaire, l'enfance d'un génie, Frédéric Lenormand
 Sarah Bernhardt, le garçon manqué, Michel Quint
-Leonard de Vinci, l'enfant visionnaire, Brigitte Kernel
-Édition numérique
-Sur la plateforme Whisperies
+Leonard de Vinci, l'enfant visionnaire, Brigitte Kernel</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fabienne_Blanchut</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabienne_Blanchut</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Édition numérique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sur la plateforme Whisperies
 Les élèves de Monsieur Bricabrac, 2015, illustrations Violette Suquet
 Un cadeau pour Matt, 2015, illustrations Yves Renda
 Nina et Grodounours, 2015, Camille Dubois
 Grodounours sent mauvais, 2015, Camille Dubois
-Beurk, 2015, illustrations Madartair
-Presse
-Milan : Magazine Toupie (2006) → Les Élèves de Monsieur Bricabrac (la grande histoire centrale)
+Beurk, 2015, illustrations Madartair</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fabienne_Blanchut</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabienne_Blanchut</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Presse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Milan : Magazine Toupie (2006) → Les Élèves de Monsieur Bricabrac (la grande histoire centrale)
 Magazine Winnie (2009) → Petit Renne (poésie de Noël)</t>
         </is>
       </c>
